--- a/medicine/Maladie à coronavirus 2019/Isolation_Stories/Isolation_Stories.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Isolation_Stories/Isolation_Stories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Isolation Stories est une mini-série télévisée britannique sur les personnes vivant la pandémie de COVID-19 qui a été diffusée pour la première fois sur ITV pendant quatre nuits consécutives du 4 mai au 7 mai 2020[1],[2].
+Isolation Stories est une mini-série télévisée britannique sur les personnes vivant la pandémie de COVID-19 qui a été diffusée pour la première fois sur ITV pendant quatre nuits consécutives du 4 mai au 7 mai 2020,.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mel (diffusé le 4 mai 2020) avec Sheridan Smith - écrit par Gaby Chiappe[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mel (diffusé le 4 mai 2020) avec Sheridan Smith - écrit par Gaby Chiappe
 Ron &amp; Russell (diffusé le 5 mai 2020) avec Michael Jibson - écrit par Jeff Pope
 Mike &amp; Rochelle (diffusé le 6 mai 2020) avec Angela Griffin - écrit par William Ivory
-Karen (diffusé le 7 mai 2020) avec David Threlfall - écrit par Neil McKay[4].</t>
+Karen (diffusé le 7 mai 2020) avec David Threlfall - écrit par Neil McKay.</t>
         </is>
       </c>
     </row>
